--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2448.206486555257</v>
+        <v>2552.180736400474</v>
       </c>
       <c r="AB2" t="n">
-        <v>3349.744122152512</v>
+        <v>3492.006277810914</v>
       </c>
       <c r="AC2" t="n">
-        <v>3030.049244529553</v>
+        <v>3158.734099718101</v>
       </c>
       <c r="AD2" t="n">
-        <v>2448206.486555257</v>
+        <v>2552180.736400473</v>
       </c>
       <c r="AE2" t="n">
-        <v>3349744.122152512</v>
+        <v>3492006.277810914</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.044094847656103e-06</v>
+        <v>1.765094143982553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.40555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3030049.244529553</v>
+        <v>3158734.099718101</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>820.5532769060139</v>
+        <v>872.5404465828975</v>
       </c>
       <c r="AB3" t="n">
-        <v>1122.7171937185</v>
+        <v>1193.84833278247</v>
       </c>
       <c r="AC3" t="n">
-        <v>1015.566640493484</v>
+        <v>1079.909123478369</v>
       </c>
       <c r="AD3" t="n">
-        <v>820553.276906014</v>
+        <v>872540.4465828976</v>
       </c>
       <c r="AE3" t="n">
-        <v>1122717.1937185</v>
+        <v>1193848.33278247</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.962145549947546e-06</v>
+        <v>3.317104406394486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.32638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1015566.640493484</v>
+        <v>1079909.123478369</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.8070625445125</v>
+        <v>665.7941427128451</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.8379022298442</v>
+        <v>910.9689188242661</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.684951560926</v>
+        <v>824.0273237645852</v>
       </c>
       <c r="AD4" t="n">
-        <v>613807.0625445126</v>
+        <v>665794.1427128451</v>
       </c>
       <c r="AE4" t="n">
-        <v>839837.9022298442</v>
+        <v>910968.9188242661</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.295929120079887e-06</v>
+        <v>3.881382092775942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>759684.951560926</v>
+        <v>824027.3237645852</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>523.9872347602936</v>
+        <v>565.5599202325964</v>
       </c>
       <c r="AB5" t="n">
-        <v>716.9424512843384</v>
+        <v>773.8240336049848</v>
       </c>
       <c r="AC5" t="n">
-        <v>648.5184699688106</v>
+        <v>699.9713539065767</v>
       </c>
       <c r="AD5" t="n">
-        <v>523987.2347602936</v>
+        <v>565559.9202325963</v>
       </c>
       <c r="AE5" t="n">
-        <v>716942.4512843384</v>
+        <v>773824.0336049849</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.487913026676985e-06</v>
+        <v>4.205940412390451e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.144444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>648518.4699688106</v>
+        <v>699971.3539065768</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.4711865516987</v>
+        <v>516.1291233700221</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.1924096314659</v>
+        <v>706.1906366047616</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.2343972035075</v>
+        <v>638.7927933919858</v>
       </c>
       <c r="AD6" t="n">
-        <v>474471.1865516987</v>
+        <v>516129.123370022</v>
       </c>
       <c r="AE6" t="n">
-        <v>649192.4096314659</v>
+        <v>706190.6366047616</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.563481160124779e-06</v>
+        <v>4.333692091387651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.904166666666665</v>
       </c>
       <c r="AH6" t="n">
-        <v>587234.3972035075</v>
+        <v>638792.7933919858</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.7609936610646</v>
+        <v>516.4189304793879</v>
       </c>
       <c r="AB7" t="n">
-        <v>649.5889365038875</v>
+        <v>706.5871634771831</v>
       </c>
       <c r="AC7" t="n">
-        <v>587.5930801077541</v>
+        <v>639.1514762962325</v>
       </c>
       <c r="AD7" t="n">
-        <v>474760.9936610645</v>
+        <v>516418.9304793879</v>
       </c>
       <c r="AE7" t="n">
-        <v>649588.9365038874</v>
+        <v>706587.1634771831</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568295346232457e-06</v>
+        <v>4.341830711864306e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.888888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>587593.0801077541</v>
+        <v>639151.4762962325</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1467.266159603573</v>
+        <v>1537.900224019145</v>
       </c>
       <c r="AB2" t="n">
-        <v>2007.578290784071</v>
+        <v>2104.222933872451</v>
       </c>
       <c r="AC2" t="n">
-        <v>1815.977836365466</v>
+        <v>1903.3988503591</v>
       </c>
       <c r="AD2" t="n">
-        <v>1467266.159603573</v>
+        <v>1537900.224019145</v>
       </c>
       <c r="AE2" t="n">
-        <v>2007578.290784071</v>
+        <v>2104222.933872451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.381026818177912e-06</v>
+        <v>2.391649824813499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.17777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1815977.836365466</v>
+        <v>1903398.8503591</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>629.8379298746233</v>
+        <v>680.1201768933319</v>
       </c>
       <c r="AB3" t="n">
-        <v>861.7720421428546</v>
+        <v>930.5704308100304</v>
       </c>
       <c r="AC3" t="n">
-        <v>779.5257279453974</v>
+        <v>841.7580949573229</v>
       </c>
       <c r="AD3" t="n">
-        <v>629837.9298746233</v>
+        <v>680120.1768933318</v>
       </c>
       <c r="AE3" t="n">
-        <v>861772.0421428547</v>
+        <v>930570.4308100304</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.229624107940168e-06</v>
+        <v>3.861242980198299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.401388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>779525.7279453974</v>
+        <v>841758.0949573229</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>482.6848375310168</v>
+        <v>522.9618575604368</v>
       </c>
       <c r="AB4" t="n">
-        <v>660.4306892620759</v>
+        <v>715.539484963045</v>
       </c>
       <c r="AC4" t="n">
-        <v>597.4001111991967</v>
+        <v>647.2494007841457</v>
       </c>
       <c r="AD4" t="n">
-        <v>482684.8375310168</v>
+        <v>522961.8575604368</v>
       </c>
       <c r="AE4" t="n">
-        <v>660430.6892620759</v>
+        <v>715539.484963045</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.543075392100972e-06</v>
+        <v>4.404075095392008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.241666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>597400.1111991967</v>
+        <v>647249.4007841457</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.5332306219372</v>
+        <v>491.8102506513571</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.8076863771703</v>
+        <v>672.9164820781392</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.8449878878661</v>
+        <v>608.6942774728151</v>
       </c>
       <c r="AD5" t="n">
-        <v>451533.2306219371</v>
+        <v>491810.2506513571</v>
       </c>
       <c r="AE5" t="n">
-        <v>617807.6863771703</v>
+        <v>672916.4820781392</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.616269360718204e-06</v>
+        <v>4.530831752045331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.011111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>558844.9878878661</v>
+        <v>608694.2774728151</v>
       </c>
     </row>
   </sheetData>
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.8355652724707</v>
+        <v>485.2418011354553</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.8024245814572</v>
+        <v>663.9292396709415</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.3672458144098</v>
+        <v>600.5647648672864</v>
       </c>
       <c r="AD2" t="n">
-        <v>439835.5652724707</v>
+        <v>485241.8011354553</v>
       </c>
       <c r="AE2" t="n">
-        <v>601802.4245814572</v>
+        <v>663929.2396709415</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.491640489263013e-06</v>
+        <v>4.714719981103714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.387500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>544367.2458144098</v>
+        <v>600564.7648672864</v>
       </c>
     </row>
     <row r="3">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.4626697047138</v>
+        <v>434.954156913719</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.8800065703414</v>
+        <v>595.123466312475</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.0226866450538</v>
+        <v>538.3257179486427</v>
       </c>
       <c r="AD3" t="n">
-        <v>389462.6697047138</v>
+        <v>434954.156913719</v>
       </c>
       <c r="AE3" t="n">
-        <v>532880.0065703414</v>
+        <v>595123.466312475</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.634611750102719e-06</v>
+        <v>4.985252372557962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.877777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>482022.6866450538</v>
+        <v>538325.7179486427</v>
       </c>
     </row>
   </sheetData>
@@ -4297,28 +4297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>699.1924753270107</v>
+        <v>746.6757187304239</v>
       </c>
       <c r="AB2" t="n">
-        <v>956.665990937413</v>
+        <v>1021.634659374817</v>
       </c>
       <c r="AC2" t="n">
-        <v>865.3631314514967</v>
+        <v>924.1312813573343</v>
       </c>
       <c r="AD2" t="n">
-        <v>699192.4753270107</v>
+        <v>746675.7187304239</v>
       </c>
       <c r="AE2" t="n">
-        <v>956665.9909374129</v>
+        <v>1021634.659374818</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.027153438181795e-06</v>
+        <v>3.693033317765118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>865363.1314514966</v>
+        <v>924131.2813573342</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.3147061318793</v>
+        <v>443.2159779017485</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.5694621524792</v>
+        <v>606.427654274115</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.6421310277746</v>
+        <v>548.551050076751</v>
       </c>
       <c r="AD3" t="n">
-        <v>405314.7061318793</v>
+        <v>443215.9779017485</v>
       </c>
       <c r="AE3" t="n">
-        <v>554569.4621524792</v>
+        <v>606427.654274115</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66318632175024e-06</v>
+        <v>4.851747101325214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.401388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>501642.1310277745</v>
+        <v>548551.050076751</v>
       </c>
     </row>
     <row r="4">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.604858215999</v>
+        <v>445.5061299858683</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.7029492683513</v>
+        <v>609.5611413899869</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.4765625311844</v>
+        <v>551.385481580161</v>
       </c>
       <c r="AD4" t="n">
-        <v>407604.858215999</v>
+        <v>445506.1299858682</v>
       </c>
       <c r="AE4" t="n">
-        <v>557702.9492683513</v>
+        <v>609561.141389987</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662703014087953e-06</v>
+        <v>4.850866619726765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.402777777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>504476.5625311844</v>
+        <v>551385.481580161</v>
       </c>
     </row>
   </sheetData>
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.6938852990448</v>
+        <v>433.7071351343814</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.1963659470173</v>
+        <v>593.4172360992673</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.3088531268329</v>
+        <v>536.7823279522743</v>
       </c>
       <c r="AD2" t="n">
-        <v>389693.8852990448</v>
+        <v>433707.1351343814</v>
       </c>
       <c r="AE2" t="n">
-        <v>533196.3659470173</v>
+        <v>593417.2360992673</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.550875001259199e-06</v>
+        <v>4.998893109349659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.522222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>482308.8531268329</v>
+        <v>536782.3279522742</v>
       </c>
     </row>
     <row r="3">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.0776926091202</v>
+        <v>437.0909424444568</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.826240391705</v>
+        <v>598.0471105439551</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.4968588525894</v>
+        <v>540.9703336780307</v>
       </c>
       <c r="AD3" t="n">
-        <v>393077.6926091202</v>
+        <v>437090.9424444568</v>
       </c>
       <c r="AE3" t="n">
-        <v>537826.2403917051</v>
+        <v>598047.1105439551</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550525206949805e-06</v>
+        <v>4.998207625207136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.52361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>486496.8588525893</v>
+        <v>540970.3336780306</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1663.189543836984</v>
+        <v>1744.509944411092</v>
       </c>
       <c r="AB2" t="n">
-        <v>2275.649308621906</v>
+        <v>2386.915468290273</v>
       </c>
       <c r="AC2" t="n">
-        <v>2058.464532500895</v>
+        <v>2159.111606053549</v>
       </c>
       <c r="AD2" t="n">
-        <v>1663189.543836984</v>
+        <v>1744509.944411092</v>
       </c>
       <c r="AE2" t="n">
-        <v>2275649.308621906</v>
+        <v>2386915.468290273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.290850090114261e-06</v>
+        <v>2.2208833214693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2058464.532500895</v>
+        <v>2159111.606053549</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.0755928912288</v>
+        <v>724.9541253413092</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.2999643101273</v>
+        <v>991.914217010763</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.2769501724979</v>
+        <v>897.2473162996022</v>
       </c>
       <c r="AD3" t="n">
-        <v>674075.5928912287</v>
+        <v>724954.1253413092</v>
       </c>
       <c r="AE3" t="n">
-        <v>922299.9643101273</v>
+        <v>991914.217010763</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.15635228817836e-06</v>
+        <v>3.709963588106172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.633333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>834276.9501724979</v>
+        <v>897247.3162996022</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>516.2853446792285</v>
+        <v>556.9029192932724</v>
       </c>
       <c r="AB4" t="n">
-        <v>706.4043854920155</v>
+        <v>761.9791429998746</v>
       </c>
       <c r="AC4" t="n">
-        <v>638.9861423854388</v>
+        <v>689.2569230364099</v>
       </c>
       <c r="AD4" t="n">
-        <v>516285.3446792285</v>
+        <v>556902.9192932723</v>
       </c>
       <c r="AE4" t="n">
-        <v>706404.3854920155</v>
+        <v>761979.1429998747</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.474465848793935e-06</v>
+        <v>4.257271990929159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.394444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>638986.1423854388</v>
+        <v>689256.9230364099</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>448.9074043007221</v>
+        <v>499.6152550416593</v>
       </c>
       <c r="AB5" t="n">
-        <v>614.2149149612026</v>
+        <v>683.5956334174426</v>
       </c>
       <c r="AC5" t="n">
-        <v>555.5951055333519</v>
+        <v>618.3542255965785</v>
       </c>
       <c r="AD5" t="n">
-        <v>448907.4043007221</v>
+        <v>499615.2550416593</v>
       </c>
       <c r="AE5" t="n">
-        <v>614214.9149612025</v>
+        <v>683595.6334174427</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.603835021305676e-06</v>
+        <v>4.479849221038179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.977777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>555595.1055333519</v>
+        <v>618354.2255965786</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>449.8398389838239</v>
+        <v>500.5476897247611</v>
       </c>
       <c r="AB6" t="n">
-        <v>615.4907132307372</v>
+        <v>684.8714316869775</v>
       </c>
       <c r="AC6" t="n">
-        <v>556.7491434066366</v>
+        <v>619.5082634698631</v>
       </c>
       <c r="AD6" t="n">
-        <v>449839.8389838239</v>
+        <v>500547.6897247611</v>
       </c>
       <c r="AE6" t="n">
-        <v>615490.7132307373</v>
+        <v>684871.4316869775</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.607574014730871e-06</v>
+        <v>4.486282088960404e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.966666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>556749.1434066365</v>
+        <v>619508.2634698631</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.1791120582206</v>
+        <v>442.1812381268064</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.1744716575929</v>
+        <v>605.0118776645421</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.0483466432769</v>
+        <v>547.270393199741</v>
       </c>
       <c r="AD2" t="n">
-        <v>399179.1120582206</v>
+        <v>442181.2381268064</v>
       </c>
       <c r="AE2" t="n">
-        <v>546174.4716575929</v>
+        <v>605011.8776645421</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46464501762772e-06</v>
+        <v>4.940776209238008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>494048.3466432769</v>
+        <v>547270.3931997409</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1014.43078654465</v>
+        <v>1083.045207900283</v>
       </c>
       <c r="AB2" t="n">
-        <v>1387.988955678147</v>
+        <v>1481.870234031556</v>
       </c>
       <c r="AC2" t="n">
-        <v>1255.521237802959</v>
+        <v>1340.44261871352</v>
       </c>
       <c r="AD2" t="n">
-        <v>1014430.78654465</v>
+        <v>1083045.207900283</v>
       </c>
       <c r="AE2" t="n">
-        <v>1387988.955678147</v>
+        <v>1481870.234031556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.673379351594544e-06</v>
+        <v>2.963679175305863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.90555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1255521.237802959</v>
+        <v>1340442.61871352</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.3933027607244</v>
+        <v>545.3792206277275</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.1872161641649</v>
+        <v>746.2119100959716</v>
       </c>
       <c r="AC3" t="n">
-        <v>614.3665414987011</v>
+        <v>674.9944927114051</v>
       </c>
       <c r="AD3" t="n">
-        <v>496393.3027607244</v>
+        <v>545379.2206277275</v>
       </c>
       <c r="AE3" t="n">
-        <v>679187.2161641648</v>
+        <v>746211.9100959715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466687421826412e-06</v>
+        <v>4.368686715949843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.754166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>614366.5414987011</v>
+        <v>674994.492711405</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.7231420992013</v>
+        <v>466.8948977304404</v>
       </c>
       <c r="AB4" t="n">
-        <v>585.229672833393</v>
+        <v>638.8261970239471</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.3761742331777</v>
+        <v>577.8575213781796</v>
       </c>
       <c r="AD4" t="n">
-        <v>427723.1420992013</v>
+        <v>466894.8977304404</v>
       </c>
       <c r="AE4" t="n">
-        <v>585229.672833393</v>
+        <v>638826.1970239471</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.648454794249197e-06</v>
+        <v>4.690610239080539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.154166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>529376.1742331777</v>
+        <v>577857.5213781797</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.9105195721491</v>
+        <v>469.0822752033882</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.2225391921636</v>
+        <v>641.8190633827178</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.0834056271816</v>
+        <v>580.5647527721835</v>
       </c>
       <c r="AD5" t="n">
-        <v>429910.5195721491</v>
+        <v>469082.2752033882</v>
       </c>
       <c r="AE5" t="n">
-        <v>588222.5391921636</v>
+        <v>641819.0633827178</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.648299304623515e-06</v>
+        <v>4.690334855399504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.154166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>532083.4056271816</v>
+        <v>580564.7527721835</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1298.752286735764</v>
+        <v>1368.682377246523</v>
       </c>
       <c r="AB2" t="n">
-        <v>1777.010175618951</v>
+        <v>1872.69161055363</v>
       </c>
       <c r="AC2" t="n">
-        <v>1607.414818507323</v>
+        <v>1693.964551581573</v>
       </c>
       <c r="AD2" t="n">
-        <v>1298752.286735764</v>
+        <v>1368682.377246523</v>
       </c>
       <c r="AE2" t="n">
-        <v>1777010.175618951</v>
+        <v>1872691.610553629</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473365777508894e-06</v>
+        <v>2.569421262848091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1607414.818507323</v>
+        <v>1693964.551581573</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>589.2860607137585</v>
+        <v>629.2949169976122</v>
       </c>
       <c r="AB3" t="n">
-        <v>806.2871857347546</v>
+        <v>861.0290679684903</v>
       </c>
       <c r="AC3" t="n">
-        <v>729.3362683594015</v>
+        <v>778.8536621834637</v>
       </c>
       <c r="AD3" t="n">
-        <v>589286.0607137585</v>
+        <v>629294.9169976122</v>
       </c>
       <c r="AE3" t="n">
-        <v>806287.1857347547</v>
+        <v>861029.0679684903</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301991200306007e-06</v>
+        <v>4.014471645293625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.191666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>729336.2683594015</v>
+        <v>778853.6621834637</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.4853202558231</v>
+        <v>491.4088356851051</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.7421333005969</v>
+        <v>672.3672484121348</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.7856911049166</v>
+        <v>608.1974618970399</v>
       </c>
       <c r="AD4" t="n">
-        <v>451485.3202558231</v>
+        <v>491408.8356851051</v>
       </c>
       <c r="AE4" t="n">
-        <v>617742.133300597</v>
+        <v>672367.2484121348</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.607450654747671e-06</v>
+        <v>4.547166261363362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.115277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>558785.6911049166</v>
+        <v>608197.4618970399</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.284440835579</v>
+        <v>484.207956264861</v>
       </c>
       <c r="AB5" t="n">
-        <v>607.8895723974398</v>
+        <v>662.5146875089778</v>
       </c>
       <c r="AC5" t="n">
-        <v>549.8734447862006</v>
+        <v>599.285215578324</v>
       </c>
       <c r="AD5" t="n">
-        <v>444284.440835579</v>
+        <v>484207.956264861</v>
       </c>
       <c r="AE5" t="n">
-        <v>607889.5723974397</v>
+        <v>662514.6875089777</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.627560703618643e-06</v>
+        <v>4.582236430600871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.052777777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>549873.4447862006</v>
+        <v>599285.215578324</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2140.528906275114</v>
+        <v>2233.48048284374</v>
       </c>
       <c r="AB2" t="n">
-        <v>2928.766083036175</v>
+        <v>3055.946530831687</v>
       </c>
       <c r="AC2" t="n">
-        <v>2649.248758620216</v>
+        <v>2764.291282976889</v>
       </c>
       <c r="AD2" t="n">
-        <v>2140528.906275114</v>
+        <v>2233480.48284374</v>
       </c>
       <c r="AE2" t="n">
-        <v>2928766.083036175</v>
+        <v>3055946.530831687</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.124496189418198e-06</v>
+        <v>1.911568994475569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2649248.758620216</v>
+        <v>2764291.282976889</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>773.8186372332327</v>
+        <v>825.4205125064589</v>
       </c>
       <c r="AB3" t="n">
-        <v>1058.772797931412</v>
+        <v>1129.376760194309</v>
       </c>
       <c r="AC3" t="n">
-        <v>957.7250080937922</v>
+        <v>1021.590627291602</v>
       </c>
       <c r="AD3" t="n">
-        <v>773818.6372332327</v>
+        <v>825420.5125064589</v>
       </c>
       <c r="AE3" t="n">
-        <v>1058772.797931412</v>
+        <v>1129376.760194309</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.024004910573046e-06</v>
+        <v>3.440674204258104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>957725.0080937922</v>
+        <v>1021590.627291602</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.5689613687568</v>
+        <v>633.170747133432</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.7283099565284</v>
+        <v>866.332149749877</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.7851168659739</v>
+        <v>783.6506252825568</v>
       </c>
       <c r="AD4" t="n">
-        <v>581568.9613687568</v>
+        <v>633170.747133432</v>
       </c>
       <c r="AE4" t="n">
-        <v>795728.3099565284</v>
+        <v>866332.1497498769</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.352368973731256e-06</v>
+        <v>3.998871348846039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.681944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>719785.1168659739</v>
+        <v>783650.6252825567</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.4193523517259</v>
+        <v>534.6838023011028</v>
       </c>
       <c r="AB5" t="n">
-        <v>675.1181260131408</v>
+        <v>731.5779668929284</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.6857996006869</v>
+        <v>661.7571925087918</v>
       </c>
       <c r="AD5" t="n">
-        <v>493419.3523517259</v>
+        <v>534683.8023011028</v>
       </c>
       <c r="AE5" t="n">
-        <v>675118.1260131408</v>
+        <v>731577.9668929285</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.545593505298605e-06</v>
+        <v>4.327340246288292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.023611111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>610685.7996006869</v>
+        <v>661757.1925087918</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.3964508405101</v>
+        <v>520.9128957506136</v>
       </c>
       <c r="AB6" t="n">
-        <v>642.2489323498786</v>
+        <v>712.7360050210294</v>
       </c>
       <c r="AC6" t="n">
-        <v>580.9535956484433</v>
+        <v>644.7134810330873</v>
       </c>
       <c r="AD6" t="n">
-        <v>469396.4508405101</v>
+        <v>520912.8957506136</v>
       </c>
       <c r="AE6" t="n">
-        <v>642248.9323498786</v>
+        <v>712736.0050210294</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.566474695163569e-06</v>
+        <v>4.362836885129083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.958333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>580953.5956484433</v>
+        <v>644713.4810330874</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>469.8388776376335</v>
+        <v>521.3553225477369</v>
       </c>
       <c r="AB7" t="n">
-        <v>642.8542802121957</v>
+        <v>713.3413528833464</v>
       </c>
       <c r="AC7" t="n">
-        <v>581.501169960392</v>
+        <v>645.2610553450359</v>
       </c>
       <c r="AD7" t="n">
-        <v>469838.8776376335</v>
+        <v>521355.322547737</v>
       </c>
       <c r="AE7" t="n">
-        <v>642854.2802121957</v>
+        <v>713341.3528833464</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.571768517946236e-06</v>
+        <v>4.371836033004213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.941666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>581501.1699603919</v>
+        <v>645261.0553450359</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.4524803941331</v>
+        <v>848.1013585610572</v>
       </c>
       <c r="AB2" t="n">
-        <v>1081.531955977525</v>
+        <v>1160.409694374519</v>
       </c>
       <c r="AC2" t="n">
-        <v>978.312064038663</v>
+        <v>1049.661821788649</v>
       </c>
       <c r="AD2" t="n">
-        <v>790452.4803941331</v>
+        <v>848101.3585610571</v>
       </c>
       <c r="AE2" t="n">
-        <v>1081531.955977525</v>
+        <v>1160409.694374519</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.901876606963357e-06</v>
+        <v>3.429533582325786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>978312.0640386631</v>
+        <v>1049661.821788649</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.786316656133</v>
+        <v>459.1336507547284</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.738402231047</v>
+        <v>628.2069165097267</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.7907371760377</v>
+        <v>568.2517300919825</v>
       </c>
       <c r="AD3" t="n">
-        <v>420786.3166561329</v>
+        <v>459133.6507547284</v>
       </c>
       <c r="AE3" t="n">
-        <v>575738.4022310469</v>
+        <v>628206.9165097268</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636855270633011e-06</v>
+        <v>4.754874038230857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.379166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>520790.7371760377</v>
+        <v>568251.7300919825</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.7511937177152</v>
+        <v>452.0985278163106</v>
       </c>
       <c r="AB4" t="n">
-        <v>566.1126366589843</v>
+        <v>618.5811509376641</v>
       </c>
       <c r="AC4" t="n">
-        <v>512.0836411603259</v>
+        <v>559.5446340762708</v>
       </c>
       <c r="AD4" t="n">
-        <v>413751.1937177152</v>
+        <v>452098.5278163106</v>
       </c>
       <c r="AE4" t="n">
-        <v>566112.6366589844</v>
+        <v>618581.1509376641</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662945422330376e-06</v>
+        <v>4.801920755713201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.297222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>512083.6411603259</v>
+        <v>559544.6340762707</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>516.0080471651142</v>
+        <v>571.3476884528285</v>
       </c>
       <c r="AB2" t="n">
-        <v>706.0249747997012</v>
+        <v>781.7431134222194</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.6429421170926</v>
+        <v>707.1346478605525</v>
       </c>
       <c r="AD2" t="n">
-        <v>516008.0471651143</v>
+        <v>571347.6884528284</v>
       </c>
       <c r="AE2" t="n">
-        <v>706024.9747997012</v>
+        <v>781743.1134222194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317526791841883e-06</v>
+        <v>4.323764212968075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.931944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>638642.9421170927</v>
+        <v>707134.6478605525</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.5155260260383</v>
+        <v>439.6887876688479</v>
       </c>
       <c r="AB3" t="n">
-        <v>538.4253033885796</v>
+        <v>601.6015969888095</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.0387481178322</v>
+        <v>544.1855849253413</v>
       </c>
       <c r="AD3" t="n">
-        <v>393515.5260260383</v>
+        <v>439688.7876688478</v>
       </c>
       <c r="AE3" t="n">
-        <v>538425.3033885795</v>
+        <v>601601.5969888095</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.654757183075221e-06</v>
+        <v>4.95292832976393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.669444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>487038.7481178322</v>
+        <v>544185.5849253413</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.1720103075322</v>
+        <v>431.039390402054</v>
       </c>
       <c r="AB2" t="n">
-        <v>540.6917782614483</v>
+        <v>589.7671100639058</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.0889138098519</v>
+        <v>533.4805648227435</v>
       </c>
       <c r="AD2" t="n">
-        <v>395172.0103075322</v>
+        <v>431039.3904020541</v>
       </c>
       <c r="AE2" t="n">
-        <v>540691.7782614484</v>
+        <v>589767.1100639057</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592284676243544e-06</v>
+        <v>4.985059563684462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.184722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>489088.9138098519</v>
+        <v>533480.5648227435</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.3023750588688</v>
+        <v>431.1697551533907</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.8701490655139</v>
+        <v>589.9454808679714</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.2502611547225</v>
+        <v>533.6419121676142</v>
       </c>
       <c r="AD3" t="n">
-        <v>395302.3750588688</v>
+        <v>431169.7551533907</v>
       </c>
       <c r="AE3" t="n">
-        <v>540870.149065514</v>
+        <v>589945.4808679713</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.601541611339242e-06</v>
+        <v>5.00286099315404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.151388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>489250.2611547225</v>
+        <v>533641.9121676142</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>416.9828957403078</v>
+        <v>458.993318999372</v>
       </c>
       <c r="AB2" t="n">
-        <v>570.5343939389264</v>
+        <v>628.0149084110482</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.0833921314457</v>
+        <v>568.0780469767568</v>
       </c>
       <c r="AD2" t="n">
-        <v>416982.8957403078</v>
+        <v>458993.318999372</v>
       </c>
       <c r="AE2" t="n">
-        <v>570534.3939389264</v>
+        <v>628014.9084110481</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.302831634480173e-06</v>
+        <v>4.749818966491459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.09722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>516083.3921314457</v>
+        <v>568078.0469767568</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1149.228389499431</v>
+        <v>1218.599971290743</v>
       </c>
       <c r="AB2" t="n">
-        <v>1572.424982891414</v>
+        <v>1667.342241556479</v>
       </c>
       <c r="AC2" t="n">
-        <v>1422.354949436581</v>
+        <v>1508.213438151862</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149228.389499431</v>
+        <v>1218599.971290743</v>
       </c>
       <c r="AE2" t="n">
-        <v>1572424.982891414</v>
+        <v>1667342.241556479</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570240644452981e-06</v>
+        <v>2.758850869803107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.60972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1422354.949436581</v>
+        <v>1508213.438151862</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.6361177220015</v>
+        <v>587.1019067183669</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.6174550987663</v>
+        <v>803.2987298801862</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.411157629722</v>
+        <v>726.633026537269</v>
       </c>
       <c r="AD3" t="n">
-        <v>537636.1177220015</v>
+        <v>587101.9067183669</v>
       </c>
       <c r="AE3" t="n">
-        <v>735617.4550987663</v>
+        <v>803298.7298801863</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382057365681195e-06</v>
+        <v>4.185180824637129e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.972222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>665411.1576297219</v>
+        <v>726633.026537269</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.9922838698961</v>
+        <v>475.547936404625</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.5438774128455</v>
+        <v>650.6656662830904</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.6105670071533</v>
+        <v>588.5670483080298</v>
       </c>
       <c r="AD4" t="n">
-        <v>435992.2838698961</v>
+        <v>475547.936404625</v>
       </c>
       <c r="AE4" t="n">
-        <v>596543.8774128455</v>
+        <v>650665.6662830905</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.635942428233613e-06</v>
+        <v>4.631246864340718e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.108333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>539610.5670071533</v>
+        <v>588567.0483080298</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.9136486737287</v>
+        <v>476.4693012084577</v>
       </c>
       <c r="AB5" t="n">
-        <v>597.8045293851958</v>
+        <v>651.9263182554408</v>
       </c>
       <c r="AC5" t="n">
-        <v>540.7509041245986</v>
+        <v>589.7073854254751</v>
       </c>
       <c r="AD5" t="n">
-        <v>436913.6486737287</v>
+        <v>476469.3012084577</v>
       </c>
       <c r="AE5" t="n">
-        <v>597804.5293851958</v>
+        <v>651926.3182554408</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.638712083461457e-06</v>
+        <v>4.636113039319303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.098611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>540750.9041245986</v>
+        <v>589707.3854254751</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1883.073360700405</v>
+        <v>1965.13670438828</v>
       </c>
       <c r="AB2" t="n">
-        <v>2576.504047443805</v>
+        <v>2688.786734656766</v>
       </c>
       <c r="AC2" t="n">
-        <v>2330.60611730191</v>
+        <v>2432.172702437008</v>
       </c>
       <c r="AD2" t="n">
-        <v>1883073.360700405</v>
+        <v>1965136.70438828</v>
       </c>
       <c r="AE2" t="n">
-        <v>2576504.047443805</v>
+        <v>2688786.734656766</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.206503690283981e-06</v>
+        <v>2.062986854724157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2330606.11730191</v>
+        <v>2432172.702437007</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>718.9671164163883</v>
+        <v>770.2566502784661</v>
       </c>
       <c r="AB3" t="n">
-        <v>983.7225272714937</v>
+        <v>1053.899130236127</v>
       </c>
       <c r="AC3" t="n">
-        <v>889.8374299319401</v>
+        <v>953.3164764031094</v>
       </c>
       <c r="AD3" t="n">
-        <v>718967.1164163883</v>
+        <v>770256.6502784661</v>
       </c>
       <c r="AE3" t="n">
-        <v>983722.5272714937</v>
+        <v>1053899.130236127</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.087101627680634e-06</v>
+        <v>3.568711191728797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.866666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>889837.42993194</v>
+        <v>953316.4764031094</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.2989474412636</v>
+        <v>589.4159153854976</v>
       </c>
       <c r="AB4" t="n">
-        <v>750.2068091315077</v>
+        <v>806.4648586254119</v>
       </c>
       <c r="AC4" t="n">
-        <v>678.6081241898655</v>
+        <v>729.4969843987399</v>
       </c>
       <c r="AD4" t="n">
-        <v>548298.9474412636</v>
+        <v>589415.9153854975</v>
       </c>
       <c r="AE4" t="n">
-        <v>750206.8091315078</v>
+        <v>806464.8586254119</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413007380567962e-06</v>
+        <v>4.125973709448314e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.534722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>678608.1241898655</v>
+        <v>729496.9843987399</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>460.2606325941053</v>
+        <v>511.3794847470398</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.7489027812921</v>
+        <v>699.6919715015298</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.646551357981</v>
+        <v>632.9143517652727</v>
       </c>
       <c r="AD5" t="n">
-        <v>460260.6325941053</v>
+        <v>511379.4847470399</v>
       </c>
       <c r="AE5" t="n">
-        <v>629748.9027812921</v>
+        <v>699691.9715015298</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.585894599797546e-06</v>
+        <v>4.421591587365035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.96388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>569646.5513579811</v>
+        <v>632914.3517652727</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>457.0603492666355</v>
+        <v>508.1792014195701</v>
       </c>
       <c r="AB6" t="n">
-        <v>625.370133946112</v>
+        <v>695.3132026663496</v>
       </c>
       <c r="AC6" t="n">
-        <v>565.6856860747898</v>
+        <v>628.9534864820814</v>
       </c>
       <c r="AD6" t="n">
-        <v>457060.3492666355</v>
+        <v>508179.2014195701</v>
       </c>
       <c r="AE6" t="n">
-        <v>625370.133946112</v>
+        <v>695313.2026663496</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.595087573718845e-06</v>
+        <v>4.43731054828342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.936111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>565685.6860747898</v>
+        <v>628953.4864820815</v>
       </c>
     </row>
   </sheetData>
@@ -17509,28 +17509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.6428428365573</v>
+        <v>514.437749903196</v>
       </c>
       <c r="AB2" t="n">
-        <v>626.1671273462817</v>
+        <v>703.876424809319</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.4066155434347</v>
+        <v>636.6994467222836</v>
       </c>
       <c r="AD2" t="n">
-        <v>457642.8428365574</v>
+        <v>514437.749903196</v>
       </c>
       <c r="AE2" t="n">
-        <v>626167.1273462818</v>
+        <v>703876.424809319</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.003160000370397e-06</v>
+        <v>4.293694517182628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.20972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>566406.6155434346</v>
+        <v>636699.4467222836</v>
       </c>
     </row>
   </sheetData>
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.2636938704087</v>
+        <v>652.0696623997851</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.1484883031105</v>
+        <v>892.190479378599</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.111158893164</v>
+        <v>807.041072223907</v>
       </c>
       <c r="AD2" t="n">
-        <v>605263.6938704087</v>
+        <v>652069.6623997851</v>
       </c>
       <c r="AE2" t="n">
-        <v>828148.4883031105</v>
+        <v>892190.479378599</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.163721616754984e-06</v>
+        <v>3.986511103617269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.48194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>749111.158893164</v>
+        <v>807041.072223907</v>
       </c>
     </row>
     <row r="3">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.6438317220382</v>
+        <v>438.2421484769274</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.1785657204993</v>
+        <v>599.6222414252072</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.8611727815832</v>
+        <v>542.3951362786861</v>
       </c>
       <c r="AD3" t="n">
-        <v>400643.8317220382</v>
+        <v>438242.1484769274</v>
       </c>
       <c r="AE3" t="n">
-        <v>548178.5657204993</v>
+        <v>599622.2414252072</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.656723545885799e-06</v>
+        <v>4.894833897716933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.536111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>495861.1727815832</v>
+        <v>542395.1362786861</v>
       </c>
     </row>
     <row r="4">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.9865298492969</v>
+        <v>439.5848466041861</v>
       </c>
       <c r="AB4" t="n">
-        <v>550.0157045338752</v>
+        <v>601.4593802385832</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.522977645051</v>
+        <v>544.056941142154</v>
       </c>
       <c r="AD4" t="n">
-        <v>401986.5298492969</v>
+        <v>439584.8466041861</v>
       </c>
       <c r="AE4" t="n">
-        <v>550015.7045338752</v>
+        <v>601459.3802385832</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.660969339246979e-06</v>
+        <v>4.902656485542898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.52361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>497522.977645051</v>
+        <v>544056.9411421539</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>901.3063912190233</v>
+        <v>959.5037253184172</v>
       </c>
       <c r="AB2" t="n">
-        <v>1233.207167297529</v>
+        <v>1312.835327297496</v>
       </c>
       <c r="AC2" t="n">
-        <v>1115.511606067782</v>
+        <v>1187.540166236177</v>
       </c>
       <c r="AD2" t="n">
-        <v>901306.3912190234</v>
+        <v>959503.7253184172</v>
       </c>
       <c r="AE2" t="n">
-        <v>1233207.167297529</v>
+        <v>1312835.327297496</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784477097099724e-06</v>
+        <v>3.187838105898386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1115511.606067782</v>
+        <v>1187540.166236177</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>454.4705720190701</v>
+        <v>493.4109698372511</v>
       </c>
       <c r="AB3" t="n">
-        <v>621.8266864630842</v>
+        <v>675.106656687026</v>
       </c>
       <c r="AC3" t="n">
-        <v>562.4804202462826</v>
+        <v>610.6754248909592</v>
       </c>
       <c r="AD3" t="n">
-        <v>454470.57201907</v>
+        <v>493410.9698372511</v>
       </c>
       <c r="AE3" t="n">
-        <v>621826.6864630842</v>
+        <v>675106.656687026</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560213660719992e-06</v>
+        <v>4.573634864885402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.529166666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>562480.4202462826</v>
+        <v>610675.4248909592</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.9877961422</v>
+        <v>459.7576017597889</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.0140753525316</v>
+        <v>629.0606338016263</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.0401004417173</v>
+        <v>569.0239698037429</v>
       </c>
       <c r="AD4" t="n">
-        <v>420987.7961422</v>
+        <v>459757.6017597889</v>
       </c>
       <c r="AE4" t="n">
-        <v>576014.0753525315</v>
+        <v>629060.6338016263</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.656433923576822e-06</v>
+        <v>4.74552534248979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.220833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>521040.1004417173</v>
+        <v>569023.9698037429</v>
       </c>
     </row>
   </sheetData>
